--- a/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8360EAF-C35A-444C-8D39-5C3619C465BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10B420-7BAD-1749-955C-8618810A6AC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>此行勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   <si>
     <t>修改变更申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +537,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -588,14 +592,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="126" customHeight="1">
+    <row r="4" spans="1:5" ht="42" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="3" t="s">

--- a/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10B420-7BAD-1749-955C-8618810A6AC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAC6CB-F557-4B4C-B88D-92EEED32A57D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>此行勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>Y R:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -191,6 +199,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,13 +542,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -545,13 +556,13 @@
     <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="43.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="58.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -564,11 +575,17 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="44.25" customHeight="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -580,8 +597,14 @@
       <c r="E2" s="4">
         <v>2</v>
       </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="44.25" customHeight="1">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -589,10 +612,14 @@
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -604,14 +631,22 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAC6CB-F557-4B4C-B88D-92EEED32A57D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CC581-EEE6-46D1-A7D7-8C7B61E1D5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEFAULT" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>此行勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,15 +57,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y R:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>会签</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更申请</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=设计变更</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=工程变更</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:project_manager,R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:rd_representative,R:engineering_manager,R:system_development</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:rd_representative,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification,R:engineering_manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:project_manager,R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:rd_representative,R:engineering_manager,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification,R:engineering_representative</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_director_leader,R:rd_director,R:engineering_leader</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_director_leader,R:rd_director</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:engineering_leader</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_leader,R:product_manager,R:project_manager,R:system_development,R:optical_development,R:hardware_development,R:software_development,R:optical_structure_development,R:structure_development,R:packaging_development,R:data_development,R:thermal_design,R:id_design,R:cable_development,R:process_development,R:pcb_design,R:purchasing_representative,R:quality_representative,R:manufacturing_manager,R:pmc_representative,R:after_sale_representative,R:intellectual_property_representative,R:financial_representative,R:test_representative,R:product_certification,R:Director_system_leader,R:financial_officer,R:engineering_leader,R:quality_leader,R:pmc_leader,R:dqa_leader,R:test_manager,R:light_machine_leader,R:optical_manager,R:optical_structure_manager,R:software_leader,R:software_manager,R:rd_management_leader,R:project_management_leader,R:harderware_leader,R:harderware_manager,R:pcb_design_manager,R:cis_manager,R:machine_engineering_leader,R:structure_manager,R:process_development_manager,R:cable_development_manager,R:packaging_development_manager,R:thermal_design_manager,R:id_manager,R:rd_assistant,R:data_management_engineer,R:sales_representative,R:rd_material_staff,R:director,R:project_director_leader,R:researcher,R:material_development,R:material_manager,R:fpga_development,R:rd_representative,R:encapsulation_development,R:encapsulation_development_manager,R:product_certification_manager,R:company_leader,R:purchasing_leader,R:rd_director,R:product_line_director_leader,R:engineering_manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_leader,R:product_manager,R:project_manager,R:system_development,R:optical_development,R:hardware_development,R:software_development,R:optical_structure_development,R:structure_development,R:packaging_development,R:data_development,R:thermal_design,R:id_design,R:cable_development,R:process_development,R:pcb_design,R:purchasing_representative,R:quality_representative,R:manufacturing_manager,R:pmc_representative,R:after_sale_representative,R:intellectual_property_representative,R:financial_representative,R:test_representative,R:product_certification,R:Director_system_leader,R:financial_officer,R:engineering_leader,R:quality_leader,R:pmc_leader,R:dqa_leader,R:test_manager,R:light_machine_leader,R:optical_manager,R:optical_structure_manager,R:software_leader,R:software_manager,R:rd_management_leader,R:project_management_leader,R:harderware_leader,R:harderware_manager,R:pcb_design_manager,R:cis_manager,R:machine_engineering_leader,R:structure_manager,R:process_development_manager,R:cable_development_manager,R:packaging_development_manager,R:thermal_design_manager,R:id_manager,R:rd_assistant,R:data_management_engineer,R:sales_representative,R:rd_material_staff,R:director,R:project_director_leader,R:researcher,R:material_development,R:material_manager,R:fpga_development,R:rd_representative,R:encapsulation_development,R:encapsulation_development_manager,R:product_certification_manager,R:company_leader,R:purchasing_leader,R:rd_director,R:product_line_director_leader,R:engineering_manager</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -177,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -202,6 +242,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,27 +586,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="43.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="58.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.8984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="123.296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="139.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -576,16 +622,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -604,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -612,41 +658,77 @@
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
+    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CC581-EEE6-46D1-A7D7-8C7B61E1D5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36D35F-1A6F-46A5-BDBB-CF3C95D61549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>此行勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   <si>
     <t>Y R:product_line_leader,R:product_manager,R:project_manager,R:system_development,R:optical_development,R:hardware_development,R:software_development,R:optical_structure_development,R:structure_development,R:packaging_development,R:data_development,R:thermal_design,R:id_design,R:cable_development,R:process_development,R:pcb_design,R:purchasing_representative,R:quality_representative,R:manufacturing_manager,R:pmc_representative,R:after_sale_representative,R:intellectual_property_representative,R:financial_representative,R:test_representative,R:product_certification,R:Director_system_leader,R:financial_officer,R:engineering_leader,R:quality_leader,R:pmc_leader,R:dqa_leader,R:test_manager,R:light_machine_leader,R:optical_manager,R:optical_structure_manager,R:software_leader,R:software_manager,R:rd_management_leader,R:project_management_leader,R:harderware_leader,R:harderware_manager,R:pcb_design_manager,R:cis_manager,R:machine_engineering_leader,R:structure_manager,R:process_development_manager,R:cable_development_manager,R:packaging_development_manager,R:thermal_design_manager,R:id_manager,R:rd_assistant,R:data_management_engineer,R:sales_representative,R:rd_material_staff,R:director,R:project_director_leader,R:researcher,R:material_development,R:material_manager,R:fpga_development,R:rd_representative,R:encapsulation_development,R:encapsulation_development_manager,R:product_certification_manager,R:company_leader,R:purchasing_leader,R:rd_director,R:product_line_director_leader,R:engineering_manager</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:project_manager,R:engineering_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:project_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:engineering_manager,R:manufacturing_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,13 +602,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -601,14 +617,15 @@
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.8984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="123.296875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="43.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="139.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="43.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="123.296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="43.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="139.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -621,17 +638,20 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -649,23 +669,27 @@
       <c r="G2" s="4">
         <v>4</v>
       </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -673,16 +697,19 @@
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -692,16 +719,19 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -711,16 +741,19 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,6 +762,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_ECNWF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36D35F-1A6F-46A5-BDBB-CF3C95D61549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4809E1-0789-4114-9144-DEA52F001262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="1416" windowWidth="19884" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEFAULT" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>此行勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>变更通知类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改变更申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,13 +598,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -616,16 +612,15 @@
     <col min="1" max="1" width="34.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.8984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="43.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="123.296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="139.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="43.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="123.296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="139.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -636,124 +631,114 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +747,6 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
